--- a/input files/L02E/L02e-Mapping.xlsx
+++ b/input files/L02E/L02e-Mapping.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Thomascook\current\htmlGen\htmlGenerator\sample files\L02E\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Thomascook\current\Landing Page App\tc-exp-landing-pages\htmlGenerator3\input files\L02E\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="132">
   <si>
     <t>Name</t>
   </si>
@@ -414,6 +414,12 @@
   </si>
   <si>
     <t>title</t>
+  </si>
+  <si>
+    <t>OG_Meta_Desc</t>
+  </si>
+  <si>
+    <t>OG_Meta_Image</t>
   </si>
 </sst>
 </file>
@@ -497,7 +503,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -557,23 +563,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -616,12 +611,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -937,10 +926,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C68"/>
+  <dimension ref="A1:C67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1007,7 +996,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>5</v>
+        <v>130</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>9</v>
@@ -1018,7 +1007,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>7</v>
+        <v>131</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>10</v>
@@ -1684,17 +1673,6 @@
         <v>125</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="B68" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="C68" s="10" t="s">
         <v>21</v>
       </c>
     </row>
